--- a/xlsx/南美洲_intext.xlsx
+++ b/xlsx/南美洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t>南美洲</t>
   </si>
@@ -29,13 +29,13 @@
     <t>哥伦比亚</t>
   </si>
   <si>
-    <t>政策_政策_美國_南美洲</t>
+    <t>政策_政策_美国_南美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>聖保羅 (巴西)</t>
+    <t>圣保罗 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%BA%A6%E7%83%AD%E5%86%85%E5%8D%A2</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>亞馬遜河</t>
+    <t>亚马逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%8E%86%E5%8F%B2</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>安地斯山脈</t>
+    <t>安地斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E9%AB%98%E5%8E%9F</t>
@@ -305,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E7%A4%A6</t>
   </si>
   <si>
-    <t>銅礦</t>
+    <t>铜矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E8%AB%BE%E7%A7%91%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>奧利諾科盆地</t>
+    <t>奥利诺科盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>亞馬遜盆地</t>
+    <t>亚马逊盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A1%94%E5%B9%B3%E5%8E%9F</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%94%E5%8D%A1%E9%A6%AC%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>阿塔卡馬沙漠</t>
+    <t>阿塔卡马沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%94%E5%8D%A1%E9%A6%AC%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>阿塔卡馬高原</t>
+    <t>阿塔卡马高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%B3%A2%E6%B9%96</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>梅里達山脈</t>
+    <t>梅里达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%9C%B0</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%90%AA%E5%85%92%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>安琪兒瀑布</t>
+    <t>安琪儿瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E9%9B%A8%E6%9E%97</t>
   </si>
   <si>
-    <t>熱帶雨林</t>
+    <t>热带雨林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E4%BB%96%E6%B2%B3</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E8%AB%BE%E7%A7%91%E6%B2%B3</t>
   </si>
   <si>
-    <t>奧利諾科河</t>
+    <t>奥利诺科河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E9%96%8B%E6%B3%A2%E6%B9%96</t>
   </si>
   <si>
-    <t>馬拉開波湖</t>
+    <t>马拉开波湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%9C%AC%E6%B0%A3%E5%80%99%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>柯本氣候分類法</t>
+    <t>柯本气候分类法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%9E%97%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>雨林氣候</t>
+    <t>雨林气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%BD%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>莽原氣候</t>
+    <t>莽原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E5%AF%92%E6%B5%81</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海型氣候</t>
+    <t>地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%94%E5%93%A5%E5%B0%BC%E4%BA%9E%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>巴塔哥尼亞高原</t>
+    <t>巴塔哥尼亚高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E7%88%86%E7%99%BC</t>
   </si>
   <si>
-    <t>火山爆發</t>
+    <t>火山爆发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B0%BC%E8%AF%BA%E7%8E%B0%E8%B1%A1</t>
@@ -527,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
   </si>
   <si>
-    <t>南美洲板塊</t>
+    <t>南美洲板块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%96%AF%E5%8D%A1%E6%9D%BF%E5%9D%97</t>
@@ -557,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E5%B8%95%E8%90%8A%E7%B4%A2</t>
   </si>
   <si>
-    <t>瓦爾帕萊索</t>
+    <t>瓦尔帕莱索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AE%E6%B0%8F%E8%A6%8F%E6%A8%A1</t>
   </si>
   <si>
-    <t>芮氏規模</t>
+    <t>芮氏规模</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%BB%89</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E8%80%B6%E4%BA%9E%E7%A7%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>尤耶亞科山</t>
+    <t>尤耶亚科山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E7%93%A6%E8%A5%BF%E5%B3%B0</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%93%A6%E5%A4%9A%C2%B7%E5%BE%B7%C2%B7%E9%AD%AF%E4%BC%8A%E6%96%AF%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>內瓦多·德·魯伊斯火山</t>
+    <t>内瓦多·德·鲁伊斯火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E8%93%8B%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>桑蓋火山</t>
+    <t>桑盖火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8F%A4%E6%8B%89%E7%93%A6%E7%81%AB%E5%B1%B1</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%AC%BD%E6%9F%A5%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>皮欽查火山</t>
+    <t>皮钦查火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AF%B7%E9%AD%9A</t>
   </si>
   <si>
-    <t>鯷魚</t>
+    <t>鳀鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橡膠</t>
+    <t>橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%B1%86</t>
   </si>
   <si>
-    <t>黃豆</t>
+    <t>黄豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%BB%E7%B1%B3</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E8%96%AF</t>
   </si>
   <si>
-    <t>樹薯</t>
+    <t>树薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84</t>
@@ -761,43 +761,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
   </si>
   <si>
-    <t>橄欖</t>
+    <t>橄榄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%8A%B1%E6%9E%9C</t>
   </si>
   <si>
-    <t>無花果</t>
+    <t>无花果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85</t>
   </si>
   <si>
-    <t>銅</t>
+    <t>铜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5</t>
   </si>
   <si>
-    <t>鐵</t>
+    <t>铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3</t>
   </si>
   <si>
-    <t>鎳</t>
+    <t>镍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%9F%B3</t>
   </si>
   <si>
-    <t>寶石</t>
+    <t>宝石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%9D%E7%9F%BE%E5%9C%9F</t>
@@ -827,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80</t>
   </si>
   <si>
-    <t>銀</t>
+    <t>银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B9</t>
   </si>
   <si>
-    <t>鈹</t>
+    <t>铍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%A2</t>
   </si>
   <si>
-    <t>鎢</t>
+    <t>钨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%81%B0</t>
@@ -863,19 +863,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
   </si>
   <si>
-    <t>鉛</t>
+    <t>铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E7%9F%B3</t>
@@ -887,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%91</t>
   </si>
   <si>
-    <t>鉑</t>
+    <t>铂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%AF%B6%E7%9F%B3</t>
   </si>
   <si>
-    <t>綠寶石</t>
+    <t>绿宝石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C500%E5%BC%BA</t>
@@ -1007,55 +1007,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓜拉尼語</t>
+    <t>瓜拉尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
@@ -1079,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
@@ -1103,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -1121,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞非大陸</t>
+    <t>欧亚非大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1145,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>超大陸</t>
+    <t>超大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
@@ -1163,109 +1145,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>潘諾西亞大陸</t>
+    <t>潘诺西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>羅迪尼亞大陸</t>
+    <t>罗迪尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大陸</t>
+    <t>哥伦比亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>凱諾蘭大陸</t>
+    <t>凯诺兰大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>妮娜大陸</t>
+    <t>妮娜大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>烏爾大陸</t>
+    <t>乌尔大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>瓦巴拉大陸</t>
+    <t>瓦巴拉大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>北極大陸</t>
+    <t>北极大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿瓦隆尼亞大陸</t>
+    <t>阿瓦隆尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>波羅的大陸</t>
+    <t>波罗的大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>辛梅利亞大陸</t>
+    <t>辛梅利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>剛果克拉通</t>
+    <t>刚果克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐美大陸</t>
+    <t>欧美大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哈薩克大陸</t>
+    <t>哈萨克大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>勞倫大陸</t>
+    <t>劳伦大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
   </si>
   <si>
-    <t>華北陸塊</t>
+    <t>华北陆块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>西伯利亞大陸</t>
+    <t>西伯利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
@@ -1277,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>東南極克拉通</t>
+    <t>东南极克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
@@ -1295,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱爾蓋朗海台</t>
+    <t>凯尔盖朗海台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
@@ -1307,25 +1289,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>終極盤古大陸</t>
+    <t>终极盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿美西亞大陸</t>
+    <t>阿美西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新盤古大陸</t>
+    <t>新盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>雷姆利亞大陸</t>
+    <t>雷姆利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
@@ -1337,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>未知的南方大陸</t>
+    <t>未知的南方大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
@@ -1421,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1529,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
@@ -1613,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -1631,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1643,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1691,19 +1673,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1721,13 +1703,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1739,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1751,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1787,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1805,13 +1787,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1835,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1859,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1889,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -7193,7 +7175,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7222,7 +7204,7 @@
         <v>18</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7248,7 +7230,7 @@
         <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -7280,7 +7262,7 @@
         <v>172</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7332,10 +7314,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -7361,10 +7343,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>54</v>
       </c>
       <c r="G177" t="n">
         <v>13</v>
@@ -7390,10 +7372,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="G178" t="n">
         <v>7</v>
@@ -7419,10 +7401,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="G179" t="n">
         <v>5</v>
@@ -7477,10 +7459,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>58</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -7506,10 +7488,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7535,10 +7517,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7564,10 +7546,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>84</v>
@@ -7593,10 +7575,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>5</v>
@@ -7622,10 +7604,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7651,10 +7633,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7709,10 +7691,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7738,10 +7720,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7767,10 +7749,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7796,10 +7778,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7825,10 +7807,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7854,10 +7836,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7883,10 +7865,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -7912,10 +7894,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7941,10 +7923,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7970,10 +7952,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7999,10 +7981,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F199" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8028,10 +8010,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8057,10 +8039,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8086,10 +8068,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8115,10 +8097,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8144,10 +8126,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8173,10 +8155,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8202,10 +8184,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8231,10 +8213,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8260,10 +8242,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8289,10 +8271,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8318,10 +8300,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8347,10 +8329,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8376,10 +8358,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8405,10 +8387,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8434,10 +8416,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F214" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8463,10 +8445,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8492,10 +8474,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8521,10 +8503,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8550,10 +8532,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8579,10 +8561,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8608,10 +8590,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8637,10 +8619,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8666,10 +8648,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8695,10 +8677,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8724,10 +8706,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8753,10 +8735,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8782,10 +8764,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8811,10 +8793,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8840,10 +8822,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8869,10 +8851,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8898,10 +8880,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8927,10 +8909,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F231" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8956,10 +8938,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8985,10 +8967,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9014,10 +8996,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9043,10 +9025,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9072,10 +9054,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9101,10 +9083,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9130,10 +9112,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9159,10 +9141,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G239" t="n">
         <v>18</v>
@@ -9188,10 +9170,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9217,10 +9199,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9246,10 +9228,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9275,10 +9257,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -9304,10 +9286,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9333,10 +9315,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9362,10 +9344,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9391,10 +9373,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9420,10 +9402,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9449,10 +9431,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9478,10 +9460,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F250" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9507,10 +9489,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F251" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9536,10 +9518,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9565,10 +9547,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9594,10 +9576,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9623,10 +9605,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9652,10 +9634,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9681,10 +9663,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9710,10 +9692,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9739,10 +9721,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F259" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9768,10 +9750,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F260" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9797,10 +9779,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9826,10 +9808,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9855,10 +9837,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9884,10 +9866,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9913,10 +9895,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9942,10 +9924,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9971,10 +9953,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F267" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10000,10 +9982,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10029,10 +10011,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10058,10 +10040,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10087,10 +10069,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10116,10 +10098,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10145,10 +10127,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10174,10 +10156,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10203,10 +10185,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10232,10 +10214,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10261,10 +10243,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10290,10 +10272,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10319,10 +10301,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10348,10 +10330,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10377,10 +10359,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10406,10 +10388,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10435,10 +10417,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10464,10 +10446,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10493,10 +10475,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10522,10 +10504,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -10551,10 +10533,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10580,10 +10562,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F288" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10609,10 +10591,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10638,10 +10620,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10667,10 +10649,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10696,10 +10678,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10725,10 +10707,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10754,10 +10736,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G294" t="n">
         <v>4</v>
@@ -10783,10 +10765,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10812,10 +10794,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10841,10 +10823,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10870,10 +10852,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10899,10 +10881,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10928,10 +10910,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G300" t="n">
         <v>21</v>
@@ -10957,10 +10939,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10986,10 +10968,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11015,10 +10997,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11044,10 +11026,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11073,10 +11055,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11102,10 +11084,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11131,10 +11113,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11160,10 +11142,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G308" t="n">
         <v>13</v>
@@ -11218,10 +11200,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11247,10 +11229,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11276,10 +11258,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11305,10 +11287,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11334,10 +11316,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11363,10 +11345,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11392,10 +11374,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -11421,10 +11403,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11450,10 +11432,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11479,10 +11461,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11508,10 +11490,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11537,10 +11519,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11566,10 +11548,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11595,10 +11577,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11624,10 +11606,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11653,10 +11635,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11682,10 +11664,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11711,10 +11693,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11740,10 +11722,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -11769,10 +11751,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11798,10 +11780,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11827,10 +11809,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11856,10 +11838,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11885,10 +11867,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>

--- a/xlsx/南美洲_intext.xlsx
+++ b/xlsx/南美洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>哥伦比亚</t>
   </si>
   <si>
-    <t>政策_政策_美國_南美洲</t>
+    <t>体育运动_体育运动_奥林匹克运动会_南美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
